--- a/Training/BiLSTM_ETH_result3.xlsx
+++ b/Training/BiLSTM_ETH_result3.xlsx
@@ -437,13 +437,13 @@
         <v>50</v>
       </c>
       <c r="E1" t="n">
-        <v>65.71360537648472</v>
+        <v>48.19637483882077</v>
       </c>
       <c r="F1" t="n">
-        <v>58.98231454787343</v>
+        <v>41.23773065547336</v>
       </c>
       <c r="G1" t="n">
-        <v>4.533615648765488</v>
+        <v>3.163335639538418</v>
       </c>
     </row>
     <row r="2">
@@ -462,13 +462,13 @@
         <v>60</v>
       </c>
       <c r="E2" t="n">
-        <v>59.18008537114462</v>
+        <v>60.55729254796846</v>
       </c>
       <c r="F2" t="n">
-        <v>52.69087729084142</v>
+        <v>53.31354714108083</v>
       </c>
       <c r="G2" t="n">
-        <v>4.067120221765923</v>
+        <v>4.130183164984218</v>
       </c>
     </row>
     <row r="3">
@@ -487,13 +487,13 @@
         <v>100</v>
       </c>
       <c r="E3" t="n">
-        <v>76.00028663782034</v>
+        <v>53.96704856675981</v>
       </c>
       <c r="F3" t="n">
-        <v>69.91594391848292</v>
+        <v>47.0756749671369</v>
       </c>
       <c r="G3" t="n">
-        <v>5.351988795703374</v>
+        <v>3.632580042874116</v>
       </c>
     </row>
     <row r="4">
@@ -512,13 +512,13 @@
         <v>50</v>
       </c>
       <c r="E4" t="n">
-        <v>48.77733758882604</v>
+        <v>40.89467432711445</v>
       </c>
       <c r="F4" t="n">
-        <v>43.45865814730819</v>
+        <v>34.9117848696299</v>
       </c>
       <c r="G4" t="n">
-        <v>3.356895310062998</v>
+        <v>2.718548515539045</v>
       </c>
     </row>
     <row r="5">
@@ -537,13 +537,13 @@
         <v>60</v>
       </c>
       <c r="E5" t="n">
-        <v>50.3915384933195</v>
+        <v>43.63375919622028</v>
       </c>
       <c r="F5" t="n">
-        <v>45.04039189425001</v>
+        <v>37.84224150175903</v>
       </c>
       <c r="G5" t="n">
-        <v>3.485505293379555</v>
+        <v>2.942588423191062</v>
       </c>
     </row>
     <row r="6">
@@ -562,13 +562,13 @@
         <v>100</v>
       </c>
       <c r="E6" t="n">
-        <v>49.89204025123428</v>
+        <v>36.54961278683501</v>
       </c>
       <c r="F6" t="n">
-        <v>44.22958764625003</v>
+        <v>30.81670680578168</v>
       </c>
       <c r="G6" t="n">
-        <v>3.434291792286383</v>
+        <v>2.397022159101394</v>
       </c>
     </row>
     <row r="7">
@@ -587,13 +587,13 @@
         <v>50</v>
       </c>
       <c r="E7" t="n">
-        <v>26.46678557908984</v>
+        <v>37.64929867106142</v>
       </c>
       <c r="F7" t="n">
-        <v>22.15359517309823</v>
+        <v>31.87346265348654</v>
       </c>
       <c r="G7" t="n">
-        <v>1.711493822394771</v>
+        <v>2.49778464045055</v>
       </c>
     </row>
     <row r="8">
@@ -612,13 +612,13 @@
         <v>60</v>
       </c>
       <c r="E8" t="n">
-        <v>22.02406141181427</v>
+        <v>47.77176810964104</v>
       </c>
       <c r="F8" t="n">
-        <v>17.60794472571818</v>
+        <v>41.90355446389906</v>
       </c>
       <c r="G8" t="n">
-        <v>1.351644619254632</v>
+        <v>3.271093721690352</v>
       </c>
     </row>
     <row r="9">
@@ -637,13 +637,13 @@
         <v>100</v>
       </c>
       <c r="E9" t="n">
-        <v>29.14145217839918</v>
+        <v>37.9370830713622</v>
       </c>
       <c r="F9" t="n">
-        <v>25.48648995059958</v>
+        <v>32.57494714192091</v>
       </c>
       <c r="G9" t="n">
-        <v>1.943037378328708</v>
+        <v>2.546673937796908</v>
       </c>
     </row>
   </sheetData>
